--- a/JavaSupportingExcel.xlsx
+++ b/JavaSupportingExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-java-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90AC139-4F24-4720-8E8F-AABF803A91BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF24781-63D5-4744-8EA2-E64B9D117334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>marksAr</t>
   </si>
@@ -75,13 +75,85 @@
   </si>
   <si>
     <t>tempVar</t>
+  </si>
+  <si>
+    <t>reversedAr</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>ramesh</t>
+  </si>
+  <si>
+    <t>tendulkar</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>stringAr</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +161,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -125,9 +234,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341110A9-3CCB-4903-8B73-5428805E0362}">
-  <dimension ref="A12:U58"/>
+  <dimension ref="A12:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,7 +788,388 @@
         <v>657</v>
       </c>
     </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="J91">
+        <v>7</v>
+      </c>
+      <c r="K91">
+        <v>8</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
+      <c r="M91">
+        <v>10</v>
+      </c>
+      <c r="N91">
+        <v>11</v>
+      </c>
+      <c r="O91">
+        <v>12</v>
+      </c>
+      <c r="P91">
+        <v>13</v>
+      </c>
+      <c r="Q91">
+        <v>14</v>
+      </c>
+      <c r="R91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C94" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>4</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>36</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H103" t="s">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>36</v>
+      </c>
+      <c r="J103" t="s">
+        <v>2</v>
+      </c>
+      <c r="K103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/JavaSupportingExcel.xlsx
+++ b/JavaSupportingExcel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-java-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF24781-63D5-4744-8EA2-E64B9D117334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D27891A-7CB3-4A56-B2C1-9EBE81658D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
+    <sheet name="ClassObjects" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
   <si>
     <t>marksAr</t>
   </si>
@@ -147,6 +148,192 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>NoOfDoors</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Steering</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>ApplyBreaks</t>
+  </si>
+  <si>
+    <t>Accelerate</t>
+  </si>
+  <si>
+    <t>TurnOnTheEngine</t>
+  </si>
+  <si>
+    <t>TurnOfEngines</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>legs</t>
+  </si>
+  <si>
+    <t>ears</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Bark</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Human Being</t>
+  </si>
+  <si>
+    <t>Think</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>add address</t>
+  </si>
+  <si>
+    <t>cancel purchase</t>
+  </si>
+  <si>
+    <t>return purchase</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Add a product to inventory</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>can be returned</t>
+  </si>
+  <si>
+    <t>can be reviewed</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Deliver address</t>
+  </si>
+  <si>
+    <t>Make an order</t>
+  </si>
+  <si>
+    <t>cancel an order</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Review it</t>
+  </si>
+  <si>
+    <t>Calculate total price</t>
+  </si>
+  <si>
+    <t>Class with main method</t>
+  </si>
+  <si>
+    <t>Class wo main</t>
   </si>
 </sst>
 </file>
@@ -169,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +393,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -234,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -242,6 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341110A9-3CCB-4903-8B73-5428805E0362}">
   <dimension ref="A12:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,4 +1366,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F859B4CC-A283-4B50-BFCE-D55EDB30F454}">
+  <dimension ref="A4:N51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="G51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaSupportingExcel.xlsx
+++ b/JavaSupportingExcel.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-java-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D27891A-7CB3-4A56-B2C1-9EBE81658D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E2C68-AAF6-414E-A851-980EE33F1A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
+    <workbookView xWindow="1130" yWindow="1960" windowWidth="20590" windowHeight="9690" activeTab="3" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
     <sheet name="ClassObjects" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="138">
   <si>
     <t>marksAr</t>
   </si>
@@ -334,6 +336,120 @@
   </si>
   <si>
     <t>Class wo main</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>Order Timestamp</t>
+  </si>
+  <si>
+    <t>Constrructor</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>String size;</t>
+  </si>
+  <si>
+    <t>String color;</t>
+  </si>
+  <si>
+    <t>double price;</t>
+  </si>
+  <si>
+    <t>String sponsorName;</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>bfastBox</t>
+  </si>
+  <si>
+    <t>lunchBox</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Prashanthi</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>dinnerBox</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Raji</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>empid</t>
+  </si>
+  <si>
+    <t>empname</t>
+  </si>
+  <si>
+    <t>empOrg</t>
+  </si>
+  <si>
+    <t>empSal</t>
+  </si>
+  <si>
+    <t>obj1</t>
+  </si>
+  <si>
+    <t>obj2</t>
+  </si>
+  <si>
+    <t>obj3</t>
+  </si>
+  <si>
+    <t>obj4</t>
+  </si>
+  <si>
+    <t>Ankitha</t>
+  </si>
+  <si>
+    <t>Praveena</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>maxBonus</t>
+  </si>
+  <si>
+    <t>empCount</t>
   </si>
 </sst>
 </file>
@@ -356,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +515,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -427,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -436,6 +576,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341110A9-3CCB-4903-8B73-5428805E0362}">
   <dimension ref="A12:U109"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1370,15 +1526,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F859B4CC-A283-4B50-BFCE-D55EDB30F454}">
-  <dimension ref="A4:N51"/>
+  <dimension ref="A4:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
@@ -1425,7 +1581,7 @@
         <v>71</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1447,7 +1603,7 @@
         <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1469,7 +1625,7 @@
         <v>55</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1494,7 +1650,7 @@
         <v>82</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1513,7 +1669,7 @@
         <v>83</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1524,6 +1680,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
@@ -1647,6 +1811,11 @@
         <v>79</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="H42" t="s">
         <v>99</v>
@@ -1697,7 +1866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.35">
       <c r="F50" t="s">
         <v>99</v>
       </c>
@@ -1705,7 +1874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.35">
       <c r="G51" t="s">
         <v>99</v>
       </c>
@@ -1718,6 +1887,1160 @@
       <c r="J51" t="s">
         <v>99</v>
       </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C62" s="2"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C63" s="2"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C64" s="2"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C68" s="2"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C69" s="2"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C70" s="2"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C71" s="2"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C72" s="2"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C75" s="2"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C76" s="2"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C77" s="2"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C78" s="2"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C79" s="2"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9C84FC-99AB-4FD0-AD16-3A812A365DC4}">
+  <dimension ref="A2:W26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="8">
+        <v>7.12</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="8"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="H16" s="11"/>
+      <c r="I16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="8"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H17" s="11"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="8:23" x14ac:dyDescent="0.35">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6770BBC8-B4BD-4F9B-9D8C-DF835ABBCB62}">
+  <dimension ref="B4:R24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>3</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
+        <v>4</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14">
+        <v>2950</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14">
+        <v>2900</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14">
+        <v>2850</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="13">
+        <v>4</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaSupportingExcel.xlsx
+++ b/JavaSupportingExcel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-java-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4E2C68-AAF6-414E-A851-980EE33F1A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB74137B-5E72-4293-BE71-7C17D7126C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1130" yWindow="1960" windowWidth="20590" windowHeight="9690" activeTab="3" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
     <sheet name="ClassObjects" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
   <si>
     <t>marksAr</t>
   </si>
@@ -450,6 +451,45 @@
   </si>
   <si>
     <t>empCount</t>
+  </si>
+  <si>
+    <t>method1</t>
+  </si>
+  <si>
+    <t>method2</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>Creating object of a class in another lass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IS A relationship</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>HAS A Relationship</t>
+  </si>
+  <si>
+    <t>Ways in which one class makes use of another class variables and Methods</t>
+  </si>
+  <si>
+    <t>Employee object created in EmployeeCaller class</t>
+  </si>
+  <si>
+    <t>Dog extends Animal</t>
+  </si>
+  <si>
+    <t>Dog is A Animal</t>
+  </si>
+  <si>
+    <t>EmployeeCaller HAS Employee</t>
+  </si>
+  <si>
+    <t>Data Hiding</t>
   </si>
 </sst>
 </file>
@@ -2578,16 +2618,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6770BBC8-B4BD-4F9B-9D8C-DF835ABBCB62}">
-  <dimension ref="B4:R24"/>
+  <dimension ref="B4:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C18"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2849,13 +2889,21 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -2866,19 +2914,22 @@
       <c r="R15" s="13"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -2889,19 +2940,20 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="15">
-        <v>3000</v>
-      </c>
+      <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>140</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -2912,12 +2964,7 @@
       <c r="R17" s="13"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -2989,7 +3036,12 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C22" s="13"/>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -3007,7 +3059,12 @@
       <c r="R22" s="13"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C23" s="13"/>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3000</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -3025,7 +3082,12 @@
       <c r="R23" s="13"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="C24" s="13"/>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="13">
+        <v>4</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -3042,6 +3104,209 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A84318-0B81-4B1E-9A8B-B7B785B5DA5F}">
+  <dimension ref="A3:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaSupportingExcel.xlsx
+++ b/JavaSupportingExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-java-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB74137B-5E72-4293-BE71-7C17D7126C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49289C3-0483-438B-8A51-35B8996ED042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="7" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Collections" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="185">
   <si>
     <t>marksAr</t>
   </si>
@@ -474,9 +477,6 @@
     <t>HAS A Relationship</t>
   </si>
   <si>
-    <t>Ways in which one class makes use of another class variables and Methods</t>
-  </si>
-  <si>
     <t>Employee object created in EmployeeCaller class</t>
   </si>
   <si>
@@ -490,6 +490,111 @@
   </si>
   <si>
     <t>Data Hiding</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>makCall</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>Iphone 11 128GB varient</t>
+  </si>
+  <si>
+    <t>Iphone1164GB</t>
+  </si>
+  <si>
+    <t>FundTransfer</t>
+  </si>
+  <si>
+    <t>AddBeneficiery</t>
+  </si>
+  <si>
+    <t>makeDeposit</t>
+  </si>
+  <si>
+    <t>balanceCheck</t>
+  </si>
+  <si>
+    <t>applyLoan</t>
+  </si>
+  <si>
+    <t>applyOverdraft</t>
+  </si>
+  <si>
+    <t>RBI</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Ways in which one class access another class variables and Methods</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>Key Value</t>
   </si>
 </sst>
 </file>
@@ -512,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +684,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -603,11 +714,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -631,6 +753,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3237,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A84318-0B81-4B1E-9A8B-B7B785B5DA5F}">
   <dimension ref="A3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3251,7 +3384,7 @@
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3274,10 +3407,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
@@ -3296,18 +3429,390 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425BCC79-4E93-43E7-A932-B2402C026F64}">
+  <dimension ref="F48:J55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" t="s">
+        <v>155</v>
+      </c>
+      <c r="J55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A866E23-E688-4919-8734-66258271778B}">
+  <dimension ref="E7:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8116EA2D-361F-45A6-BC29-0584EDAAD07D}">
+  <dimension ref="A9:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>123</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="U22" s="21"/>
+      <c r="V22" s="19"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27">
+        <v>91</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28">
+        <v>99</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29">
+        <v>35</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="E31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="L26:L29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaSupportingExcel.xlsx
+++ b/JavaSupportingExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-java-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49289C3-0483-438B-8A51-35B8996ED042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA9DD7E-DB4E-4385-883C-FE89E981D51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="7" xr2:uid="{FE50A4E7-5AC5-4E02-86E3-1E5D4BC792A6}"/>
   </bookViews>
@@ -756,12 +756,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3604,10 +3604,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8116EA2D-361F-45A6-BC29-0584EDAAD07D}">
-  <dimension ref="A9:V31"/>
+  <dimension ref="A9:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>169</v>
       </c>
@@ -3644,50 +3644,60 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19" t="s">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20" t="s">
+      <c r="O19" s="18"/>
+      <c r="P19" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R19" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="S19" s="20" t="s">
+      <c r="S19" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="U19" s="21" t="s">
+      <c r="U19" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="V19" s="21" t="s">
+      <c r="V19" s="20" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="Y19" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="L20" s="21"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>170</v>
       </c>
@@ -3697,121 +3707,111 @@
       <c r="F21" t="s">
         <v>172</v>
       </c>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19" t="s">
+      <c r="L21" s="21"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="L22" s="21"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20" t="s">
+      <c r="O22" s="18"/>
+      <c r="P22" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="R22" s="20" t="s">
+      <c r="R22" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="19"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
+      <c r="U22" s="20"/>
+      <c r="V22" s="18"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Y25" t="s">
         <v>171</v>
       </c>
-      <c r="F25" t="s">
+      <c r="Z25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="E26" t="s">
+    <row r="26" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Y26" t="s">
         <v>180</v>
       </c>
-      <c r="F26" t="s">
+      <c r="Z26" t="s">
         <v>181</v>
       </c>
-      <c r="L26" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Y27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F27">
+      <c r="Z27">
         <v>91</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Y28" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F28">
+      <c r="Z28">
         <v>99</v>
       </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Y29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F29">
+      <c r="Z29">
         <v>35</v>
       </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Y30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F30">
+      <c r="Z30">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="E31" s="1" t="s">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.35">
+      <c r="Y31" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F31">
+      <c r="Z31">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L19:L22"/>
-    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="Y19:Y22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
